--- a/doc/Schemas.xlsx
+++ b/doc/Schemas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\Python\meetjobs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\Python\meetjobs\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -884,7 +884,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,7 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
